--- a/Practic1_2024/wwwroot/downloads/input.xlsx
+++ b/Practic1_2024/wwwroot/downloads/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\source\repos\Practic1_2024\Practic1_2024\wwwroot\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey_\Desktop\Gololobov\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D544DA10-494D-440B-A9C3-3B89A751B314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B476A3AD-1375-4A7E-B185-E11820D6E6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{ED7C02D1-A13F-49BF-81FB-F47D82760242}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Brands" sheetId="13" r:id="rId2"/>
     <sheet name="Users" sheetId="9" r:id="rId3"/>
     <sheet name="Smartphones" sheetId="8" r:id="rId4"/>
-    <sheet name="SmartphoneCharacteristics" sheetId="10" r:id="rId5"/>
+    <sheet name="SmartphoneCharacteristics " sheetId="10" r:id="rId5"/>
     <sheet name="Orders" sheetId="11" r:id="rId6"/>
     <sheet name="OrderItems" sheetId="12" r:id="rId7"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="86">
   <si>
     <t>Name</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>В процессе</t>
+  </si>
+  <si>
+    <t>ProductId</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -1143,12 +1146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD05BBB8-25DD-445A-8EF5-98F1E25E0FA0}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A2:A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1349,7 +1351,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D6" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,10 +1364,10 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
